--- a/SnowPro_SelfAssesement_Tool.xlsx
+++ b/SnowPro_SelfAssesement_Tool.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="146">
   <si>
     <t>Snowflake SNOWPRO Certification Self-Assessment Tool</t>
   </si>
@@ -90,6 +90,12 @@
     <t>Snowflake Self Assesement Tool</t>
   </si>
   <si>
+    <t>How to Use Self Assesement Tool</t>
+  </si>
+  <si>
+    <t>https://youtu.be/fDa3KYm04Rk</t>
+  </si>
+  <si>
     <t>Linkedin</t>
   </si>
   <si>
@@ -112,6 +118,12 @@
   </si>
   <si>
     <t xml:space="preserve">Self Assessment last updated </t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>2.0</t>
   </si>
   <si>
     <t>Sub-Domain</t>
@@ -454,7 +466,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,8 +607,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <i/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1139,7 +1160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1160,131 +1181,131 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1354,6 +1375,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1705,10 +1729,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
@@ -1926,62 +1950,79 @@
       <c r="C25" s="13"/>
     </row>
     <row r="26" ht="15.5" spans="1:3">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-    </row>
-    <row r="27" ht="21" spans="1:3">
-      <c r="A27" s="33" t="s">
+      <c r="C26" s="13" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="27" ht="15.5" spans="1:3">
+      <c r="A27" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
     </row>
-    <row r="28" ht="15.5" spans="1:3">
-      <c r="A28" s="13" t="s">
-        <v>26</v>
+    <row r="28" ht="21" spans="1:3">
+      <c r="A28" s="33" t="s">
+        <v>27</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
     </row>
     <row r="29" ht="15.5" spans="1:3">
-      <c r="A29" s="34" t="s">
-        <v>27</v>
+      <c r="A29" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
     </row>
     <row r="30" ht="15.5" spans="1:3">
-      <c r="A30" s="13" t="s">
-        <v>28</v>
+      <c r="A30" s="34" t="s">
+        <v>29</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
     </row>
     <row r="31" ht="15.5" spans="1:3">
       <c r="A31" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
     </row>
     <row r="32" ht="15.5" spans="1:3">
       <c r="A32" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
     </row>
     <row r="33" ht="15.5" spans="1:3">
-      <c r="A33" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="36">
+      <c r="A33" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34" ht="15.5" spans="1:3">
+      <c r="A34" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="36">
         <v>44275</v>
       </c>
-      <c r="C33" s="13"/>
+      <c r="C34" s="13"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C19">
@@ -2009,9 +2050,10 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A29" r:id="rId1" display="https://github.com/rajivgupta780184/snowflake/blob/main/LICENSE" tooltip="https://github.com/rajivgupta780184/snowflake/blob/main/LICENSE"/>
-    <hyperlink ref="A26" r:id="rId2" display="Linkedin"/>
+    <hyperlink ref="A30" r:id="rId1" display="https://github.com/rajivgupta780184/snowflake/blob/main/LICENSE" tooltip="https://github.com/rajivgupta780184/snowflake/blob/main/LICENSE"/>
+    <hyperlink ref="A27" r:id="rId2" display="Linkedin"/>
     <hyperlink ref="A24" r:id="rId3" display="Zero to Hero in Snowflake"/>
+    <hyperlink ref="A26" r:id="rId4" display="How to Use Self Assesement Tool"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2024,7 +2066,7 @@
   <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -2041,16 +2083,16 @@
         <v>9</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="18.5" spans="1:4">
@@ -2068,13 +2110,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F3">
         <f>VLOOKUP(D3,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2084,10 +2126,10 @@
     <row r="4" ht="15.5" spans="1:6">
       <c r="A4" s="9"/>
       <c r="C4" s="12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F4">
         <f>VLOOKUP(D4,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2097,10 +2139,10 @@
     <row r="5" ht="15.5" spans="1:6">
       <c r="A5" s="9"/>
       <c r="C5" s="12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F5">
         <f>VLOOKUP(D5,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2110,7 +2152,7 @@
     <row r="6" ht="18.5" spans="1:4">
       <c r="A6" s="9"/>
       <c r="B6" s="11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D6" s="10">
         <f>SUM(F7:F10)/4</f>
@@ -2120,10 +2162,10 @@
     <row r="7" ht="15.5" spans="1:6">
       <c r="A7" s="9"/>
       <c r="C7" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F7">
         <f>VLOOKUP(D7,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2133,10 +2175,10 @@
     <row r="8" ht="15.5" spans="1:6">
       <c r="A8" s="9"/>
       <c r="C8" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F8">
         <f>VLOOKUP(D8,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2146,10 +2188,10 @@
     <row r="9" ht="15.5" spans="1:6">
       <c r="A9" s="9"/>
       <c r="C9" s="12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F9">
         <f>VLOOKUP(D9,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2159,10 +2201,10 @@
     <row r="10" ht="15.5" spans="1:6">
       <c r="A10" s="9"/>
       <c r="C10" s="12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F10">
         <f>VLOOKUP(D10,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2172,7 +2214,7 @@
     <row r="11" ht="31" spans="1:4">
       <c r="A11" s="9"/>
       <c r="B11" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D11" s="10">
         <f>SUM(F12:F15)/4</f>
@@ -2182,10 +2224,10 @@
     <row r="12" ht="15.5" spans="1:6">
       <c r="A12" s="9"/>
       <c r="C12" s="12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F12">
         <f>VLOOKUP(D12,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2195,10 +2237,10 @@
     <row r="13" ht="15.5" spans="1:6">
       <c r="A13" s="9"/>
       <c r="C13" s="12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F13">
         <f>VLOOKUP(D13,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2208,10 +2250,10 @@
     <row r="14" ht="15.5" spans="1:6">
       <c r="A14" s="9"/>
       <c r="C14" s="12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F14">
         <f>VLOOKUP(D14,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2221,10 +2263,10 @@
     <row r="15" ht="15.5" spans="1:6">
       <c r="A15" s="9"/>
       <c r="C15" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F15">
         <f>VLOOKUP(D15,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2234,7 +2276,7 @@
     <row r="16" ht="18.5" spans="1:4">
       <c r="A16" s="9"/>
       <c r="B16" s="11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D16" s="10">
         <f>SUM(F17:F26)/10</f>
@@ -2244,10 +2286,10 @@
     <row r="17" ht="15.5" spans="1:6">
       <c r="A17" s="9"/>
       <c r="C17" s="12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F17">
         <f>VLOOKUP(D17,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2256,10 +2298,10 @@
     </row>
     <row r="18" ht="15.5" spans="3:6">
       <c r="C18" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F18">
         <f>VLOOKUP(D18,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2268,10 +2310,10 @@
     </row>
     <row r="19" ht="15.5" spans="3:6">
       <c r="C19" s="12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F19">
         <f>VLOOKUP(D19,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2280,10 +2322,10 @@
     </row>
     <row r="20" ht="15.5" spans="3:6">
       <c r="C20" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F20">
         <f>VLOOKUP(D20,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2292,10 +2334,10 @@
     </row>
     <row r="21" ht="15.5" spans="3:6">
       <c r="C21" s="12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F21">
         <f>VLOOKUP(D21,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2304,10 +2346,10 @@
     </row>
     <row r="22" ht="15.5" spans="3:6">
       <c r="C22" s="12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F22">
         <f>VLOOKUP(D22,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2316,10 +2358,10 @@
     </row>
     <row r="23" ht="15.5" spans="3:6">
       <c r="C23" s="12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F23">
         <f>VLOOKUP(D23,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2328,10 +2370,10 @@
     </row>
     <row r="24" ht="15.5" spans="3:6">
       <c r="C24" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F24">
         <f>VLOOKUP(D24,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2340,10 +2382,10 @@
     </row>
     <row r="25" ht="15.5" spans="3:6">
       <c r="C25" s="12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F25">
         <f>VLOOKUP(D25,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2352,10 +2394,10 @@
     </row>
     <row r="26" ht="15.5" spans="3:6">
       <c r="C26" s="12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F26">
         <f>VLOOKUP(D26,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2364,7 +2406,7 @@
     </row>
     <row r="27" ht="18.5" spans="2:4">
       <c r="B27" s="11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D27" s="10">
         <f>SUM(F28:F29)/2</f>
@@ -2373,10 +2415,10 @@
     </row>
     <row r="28" ht="15.5" spans="3:6">
       <c r="C28" s="12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F28">
         <f>VLOOKUP(D28,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2385,10 +2427,10 @@
     </row>
     <row r="29" ht="15.5" spans="3:6">
       <c r="C29" s="12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F29">
         <f>VLOOKUP(D29,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2397,7 +2439,7 @@
     </row>
     <row r="30" ht="18.5" spans="2:4">
       <c r="B30" s="11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D30" s="10">
         <f>SUM(F31:F32)/2</f>
@@ -2406,10 +2448,10 @@
     </row>
     <row r="31" ht="15.5" spans="3:6">
       <c r="C31" s="14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F31">
         <f>VLOOKUP(D31,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2418,10 +2460,10 @@
     </row>
     <row r="32" ht="15.5" spans="3:6">
       <c r="C32" s="12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F32">
         <f>VLOOKUP(D32,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2430,7 +2472,7 @@
     </row>
     <row r="33" ht="18.5" spans="2:4">
       <c r="B33" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="10">
@@ -2440,10 +2482,10 @@
     </row>
     <row r="34" ht="15.5" spans="3:6">
       <c r="C34" s="12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F34">
         <f>VLOOKUP(D34,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2452,10 +2494,10 @@
     </row>
     <row r="35" ht="15.5" spans="3:6">
       <c r="C35" s="12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F35">
         <f>VLOOKUP(D35,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2464,10 +2506,10 @@
     </row>
     <row r="36" ht="15.5" spans="3:6">
       <c r="C36" s="12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F36">
         <f>VLOOKUP(D36,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2476,10 +2518,10 @@
     </row>
     <row r="37" ht="15.5" spans="3:6">
       <c r="C37" s="12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F37">
         <f>VLOOKUP(D37,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2488,7 +2530,7 @@
     </row>
     <row r="38" ht="18.5" spans="2:4">
       <c r="B38" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D38" s="10">
         <f>SUM(F39:F42)/4</f>
@@ -2497,10 +2539,10 @@
     </row>
     <row r="39" ht="15.5" spans="3:6">
       <c r="C39" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F39">
         <f>VLOOKUP(D39,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2509,10 +2551,10 @@
     </row>
     <row r="40" ht="15.5" spans="3:6">
       <c r="C40" s="12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F40">
         <f>VLOOKUP(D40,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2521,10 +2563,10 @@
     </row>
     <row r="41" ht="15.5" spans="3:6">
       <c r="C41" s="12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F41">
         <f>VLOOKUP(D41,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2533,10 +2575,10 @@
     </row>
     <row r="42" ht="15.5" spans="3:6">
       <c r="C42" s="12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F42">
         <f>VLOOKUP(D42,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2545,7 +2587,7 @@
     </row>
     <row r="43" ht="18.5" spans="2:4">
       <c r="B43" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D43" s="10">
         <f>SUM(F44:F48)/5</f>
@@ -2554,10 +2596,10 @@
     </row>
     <row r="44" ht="15.5" spans="3:6">
       <c r="C44" s="12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F44">
         <f>VLOOKUP(D44,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2566,10 +2608,10 @@
     </row>
     <row r="45" ht="15.5" spans="3:6">
       <c r="C45" s="12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F45">
         <f>VLOOKUP(D45,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2578,10 +2620,10 @@
     </row>
     <row r="46" ht="15.5" spans="3:6">
       <c r="C46" s="12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F46">
         <f>VLOOKUP(D46,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2590,10 +2632,10 @@
     </row>
     <row r="47" ht="15.5" spans="3:6">
       <c r="C47" s="12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F47">
         <f>VLOOKUP(D47,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2602,10 +2644,10 @@
     </row>
     <row r="48" ht="15.5" spans="3:6">
       <c r="C48" s="12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F48">
         <f>VLOOKUP(D48,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2626,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D51" s="10">
         <f>SUM(F52:F56)/5</f>
@@ -2635,10 +2677,10 @@
     </row>
     <row r="52" ht="15.5" spans="3:6">
       <c r="C52" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F52">
         <f>VLOOKUP(D52,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2647,10 +2689,10 @@
     </row>
     <row r="53" ht="15.5" spans="3:6">
       <c r="C53" s="12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F53">
         <f>VLOOKUP(D53,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2659,10 +2701,10 @@
     </row>
     <row r="54" ht="15.5" spans="3:6">
       <c r="C54" s="12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F54">
         <f>VLOOKUP(D54,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2671,10 +2713,10 @@
     </row>
     <row r="55" ht="15.5" spans="3:6">
       <c r="C55" s="14" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F55">
         <f>VLOOKUP(D55,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2683,10 +2725,10 @@
     </row>
     <row r="56" ht="15.5" spans="3:6">
       <c r="C56" s="12" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F56">
         <f>VLOOKUP(D56,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2707,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D59" s="10">
         <f>SUM(F60:F64)/5</f>
@@ -2716,10 +2758,10 @@
     </row>
     <row r="60" ht="15.5" spans="3:6">
       <c r="C60" s="12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F60">
         <f>VLOOKUP(D60,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2728,10 +2770,10 @@
     </row>
     <row r="61" ht="15.5" spans="3:6">
       <c r="C61" s="12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F61">
         <f>VLOOKUP(D61,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2740,10 +2782,10 @@
     </row>
     <row r="62" ht="15.5" spans="3:6">
       <c r="C62" s="12" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F62">
         <f>VLOOKUP(D62,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2752,10 +2794,10 @@
     </row>
     <row r="63" ht="15.5" spans="3:6">
       <c r="C63" s="12" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F63">
         <f>VLOOKUP(D63,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2764,10 +2806,10 @@
     </row>
     <row r="64" ht="15.5" spans="3:6">
       <c r="C64" s="12" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F64">
         <f>VLOOKUP(D64,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2776,7 +2818,7 @@
     </row>
     <row r="65" ht="18.5" spans="2:4">
       <c r="B65" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D65" s="10">
         <f>SUM(F66:F70)/5</f>
@@ -2785,10 +2827,10 @@
     </row>
     <row r="66" ht="15.5" spans="3:6">
       <c r="C66" s="12" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F66">
         <f>VLOOKUP(D66,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2798,10 +2840,10 @@
     <row r="67" ht="15.5" spans="2:6">
       <c r="B67" s="17"/>
       <c r="C67" s="12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F67">
         <f>VLOOKUP(D67,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2811,10 +2853,10 @@
     <row r="68" ht="15.5" spans="2:6">
       <c r="B68" s="11"/>
       <c r="C68" s="12" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F68">
         <f>VLOOKUP(D68,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2823,10 +2865,10 @@
     </row>
     <row r="69" ht="15.5" spans="3:6">
       <c r="C69" s="12" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F69">
         <f>VLOOKUP(D69,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2835,10 +2877,10 @@
     </row>
     <row r="70" ht="15.5" spans="3:6">
       <c r="C70" s="12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F70">
         <f>VLOOKUP(D70,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2856,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D73" s="10">
         <f>SUM(F74:F79)/6</f>
@@ -2865,10 +2907,10 @@
     </row>
     <row r="74" ht="15.5" spans="3:6">
       <c r="C74" s="12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F74">
         <f>VLOOKUP(D74,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2877,10 +2919,10 @@
     </row>
     <row r="75" ht="15.5" spans="3:6">
       <c r="C75" s="12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F75">
         <f>VLOOKUP(D75,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2889,10 +2931,10 @@
     </row>
     <row r="76" ht="15.5" spans="3:6">
       <c r="C76" s="12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F76">
         <f>VLOOKUP(D76,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2901,10 +2943,10 @@
     </row>
     <row r="77" ht="15.5" spans="3:6">
       <c r="C77" s="12" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F77">
         <f>VLOOKUP(D77,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2913,10 +2955,10 @@
     </row>
     <row r="78" ht="15.5" spans="3:6">
       <c r="C78" s="12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F78">
         <f>VLOOKUP(D78,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2925,10 +2967,10 @@
     </row>
     <row r="79" ht="15.5" spans="3:6">
       <c r="C79" s="12" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F79">
         <f>VLOOKUP(D79,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2937,7 +2979,7 @@
     </row>
     <row r="80" ht="18.5" spans="2:4">
       <c r="B80" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D80" s="10">
         <f>SUM(F81:F84)/4</f>
@@ -2946,10 +2988,10 @@
     </row>
     <row r="81" ht="15.5" spans="3:6">
       <c r="C81" s="12" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F81">
         <f>VLOOKUP(D81,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2958,10 +3000,10 @@
     </row>
     <row r="82" ht="15.5" spans="3:6">
       <c r="C82" s="12" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F82">
         <f>VLOOKUP(D82,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2970,10 +3012,10 @@
     </row>
     <row r="83" ht="15.5" spans="3:6">
       <c r="C83" s="12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F83">
         <f>VLOOKUP(D83,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2982,10 +3024,10 @@
     </row>
     <row r="84" ht="15.5" spans="3:6">
       <c r="C84" s="12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F84">
         <f>VLOOKUP(D84,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2994,25 +3036,25 @@
     </row>
     <row r="85" ht="29" spans="2:2">
       <c r="B85" s="6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" ht="29" spans="2:3">
       <c r="B86" s="6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" s="12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" ht="18.5" spans="2:4">
       <c r="B89" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D89" s="10">
         <f>SUM(F90:F91)/2</f>
@@ -3021,10 +3063,10 @@
     </row>
     <row r="90" ht="15.5" spans="3:6">
       <c r="C90" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F90">
         <f>VLOOKUP(D90,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3033,10 +3075,10 @@
     </row>
     <row r="91" ht="15.5" spans="3:6">
       <c r="C91" s="12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F91">
         <f>VLOOKUP(D91,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3048,7 +3090,7 @@
         <v>16</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D93" s="10">
         <f>SUM(F94:F100)/7</f>
@@ -3061,10 +3103,10 @@
         <v>0</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F94">
         <f>VLOOKUP(D94,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3073,10 +3115,10 @@
     </row>
     <row r="95" ht="15.5" spans="3:6">
       <c r="C95" s="12" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F95">
         <f>VLOOKUP(D95,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3085,10 +3127,10 @@
     </row>
     <row r="96" ht="15.5" spans="3:6">
       <c r="C96" s="12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F96">
         <f>VLOOKUP(D96,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3097,10 +3139,10 @@
     </row>
     <row r="97" ht="15.5" spans="3:6">
       <c r="C97" s="12" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F97">
         <f>VLOOKUP(D97,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3109,10 +3151,10 @@
     </row>
     <row r="98" ht="15.5" spans="3:6">
       <c r="C98" s="12" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F98">
         <f>VLOOKUP(D98,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3121,10 +3163,10 @@
     </row>
     <row r="99" ht="15.5" spans="3:6">
       <c r="C99" s="12" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F99">
         <f>VLOOKUP(D99,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3133,10 +3175,10 @@
     </row>
     <row r="100" ht="15.5" spans="3:6">
       <c r="C100" s="12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F100">
         <f>VLOOKUP(D100,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3145,7 +3187,7 @@
     </row>
     <row r="101" ht="18.5" spans="2:4">
       <c r="B101" s="6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D101" s="10">
         <f>SUM(F102:F109)/8</f>
@@ -3154,10 +3196,10 @@
     </row>
     <row r="102" ht="15.5" spans="3:6">
       <c r="C102" s="12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F102">
         <f>VLOOKUP(D102,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3166,10 +3208,10 @@
     </row>
     <row r="103" ht="15.5" spans="3:6">
       <c r="C103" s="12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F103">
         <f>VLOOKUP(D103,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3178,10 +3220,10 @@
     </row>
     <row r="104" ht="15.5" spans="3:6">
       <c r="C104" s="12" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F104">
         <f>VLOOKUP(D104,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3190,10 +3232,10 @@
     </row>
     <row r="105" ht="15.5" spans="3:6">
       <c r="C105" s="12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F105">
         <f>VLOOKUP(D105,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3202,10 +3244,10 @@
     </row>
     <row r="106" ht="15.5" spans="3:6">
       <c r="C106" s="12" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F106">
         <f>VLOOKUP(D106,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3214,10 +3256,10 @@
     </row>
     <row r="107" ht="15.5" spans="3:6">
       <c r="C107" s="12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F107">
         <f>VLOOKUP(D107,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3226,10 +3268,10 @@
     </row>
     <row r="108" ht="15.5" spans="3:6">
       <c r="C108" s="12" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F108">
         <f>VLOOKUP(D108,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3238,10 +3280,10 @@
     </row>
     <row r="109" ht="15.5" spans="3:6">
       <c r="C109" s="12" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F109">
         <f>VLOOKUP(D109,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3259,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D112" s="10">
         <f>SUM(F113:F116)/4</f>
@@ -3268,10 +3310,10 @@
     </row>
     <row r="113" ht="15.5" spans="3:6">
       <c r="C113" s="12" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F113">
         <f>VLOOKUP(D113,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3280,10 +3322,10 @@
     </row>
     <row r="114" ht="15.5" spans="3:6">
       <c r="C114" s="12" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F114">
         <f>VLOOKUP(D114,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3292,10 +3334,10 @@
     </row>
     <row r="115" ht="15.5" spans="3:6">
       <c r="C115" s="12" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F115">
         <f>VLOOKUP(D115,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3304,10 +3346,10 @@
     </row>
     <row r="116" ht="15.5" spans="3:6">
       <c r="C116" s="12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F116">
         <f>VLOOKUP(D116,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3325,10 +3367,10 @@
         <v>18</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F118">
         <f>VLOOKUP(D118,ListOfValue!A2:B49,2,FALSE)</f>
@@ -3989,15 +4031,15 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -4005,7 +4047,7 @@
     </row>
     <row r="3" ht="15.5" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B3" s="4">
         <v>0.5</v>
@@ -4013,7 +4055,7 @@
     </row>
     <row r="4" ht="15.5" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>

--- a/SnowPro_SelfAssesement_Tool.xlsx
+++ b/SnowPro_SelfAssesement_Tool.xlsx
@@ -3,6 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <workbookProtection workbookPassword="C653" lockStructure="1"/>
   <bookViews>
     <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="145">
   <si>
     <t>Snowflake SNOWPRO Certification Self-Assessment Tool</t>
   </si>
@@ -93,9 +94,6 @@
     <t>How to Use Self Assesement Tool</t>
   </si>
   <si>
-    <t>https://youtu.be/fDa3KYm04Rk</t>
-  </si>
-  <si>
     <t>Linkedin</t>
   </si>
   <si>
@@ -123,7 +121,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0</t>
+    <t>3.0</t>
   </si>
   <si>
     <t>Sub-Domain</t>
@@ -461,9 +459,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="38">
@@ -625,28 +623,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -661,10 +637,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -676,11 +660,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -699,17 +728,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -717,36 +744,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,7 +789,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,127 +915,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,18 +933,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -965,7 +945,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,11 +1071,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1091,17 +1095,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1130,17 +1134,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1160,7 +1158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1181,127 +1179,127 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1731,8 +1729,8 @@
   <sheetPr/>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
@@ -1954,77 +1952,76 @@
         <v>24</v>
       </c>
       <c r="B26" s="13"/>
-      <c r="C26" s="13" t="s">
-        <v>25</v>
-      </c>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" ht="15.5" spans="1:3">
       <c r="A27" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
     </row>
     <row r="28" ht="21" spans="1:3">
       <c r="A28" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
     </row>
     <row r="29" ht="15.5" spans="1:3">
       <c r="A29" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
     </row>
     <row r="30" ht="15.5" spans="1:3">
       <c r="A30" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
     </row>
     <row r="31" ht="15.5" spans="1:3">
       <c r="A31" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
     </row>
     <row r="32" ht="15.5" spans="1:3">
       <c r="A32" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
     </row>
     <row r="33" ht="15.5" spans="1:3">
       <c r="A33" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
     </row>
     <row r="34" ht="15.5" spans="1:3">
       <c r="A34" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="36">
-        <v>44275</v>
+        <v>44289</v>
       </c>
       <c r="C34" s="13"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
     </row>
   </sheetData>
+  <sheetProtection password="C653" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
   <conditionalFormatting sqref="C19">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>0.5</formula>
@@ -2066,7 +2063,7 @@
   <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -2083,16 +2080,16 @@
         <v>9</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="18.5" spans="1:4">
@@ -2110,13 +2107,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="D3" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3">
         <f>VLOOKUP(D3,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2126,10 +2123,10 @@
     <row r="4" ht="15.5" spans="1:6">
       <c r="A4" s="9"/>
       <c r="C4" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4">
         <f>VLOOKUP(D4,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2139,10 +2136,10 @@
     <row r="5" ht="15.5" spans="1:6">
       <c r="A5" s="9"/>
       <c r="C5" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <f>VLOOKUP(D5,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2152,7 +2149,7 @@
     <row r="6" ht="18.5" spans="1:4">
       <c r="A6" s="9"/>
       <c r="B6" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="10">
         <f>SUM(F7:F10)/4</f>
@@ -2162,10 +2159,10 @@
     <row r="7" ht="15.5" spans="1:6">
       <c r="A7" s="9"/>
       <c r="C7" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7">
         <f>VLOOKUP(D7,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2175,10 +2172,10 @@
     <row r="8" ht="15.5" spans="1:6">
       <c r="A8" s="9"/>
       <c r="C8" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8">
         <f>VLOOKUP(D8,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2188,10 +2185,10 @@
     <row r="9" ht="15.5" spans="1:6">
       <c r="A9" s="9"/>
       <c r="C9" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9">
         <f>VLOOKUP(D9,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2201,10 +2198,10 @@
     <row r="10" ht="15.5" spans="1:6">
       <c r="A10" s="9"/>
       <c r="C10" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10">
         <f>VLOOKUP(D10,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2214,7 +2211,7 @@
     <row r="11" ht="31" spans="1:4">
       <c r="A11" s="9"/>
       <c r="B11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="10">
         <f>SUM(F12:F15)/4</f>
@@ -2224,10 +2221,10 @@
     <row r="12" ht="15.5" spans="1:6">
       <c r="A12" s="9"/>
       <c r="C12" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12">
         <f>VLOOKUP(D12,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2237,10 +2234,10 @@
     <row r="13" ht="15.5" spans="1:6">
       <c r="A13" s="9"/>
       <c r="C13" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13">
         <f>VLOOKUP(D13,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2250,10 +2247,10 @@
     <row r="14" ht="15.5" spans="1:6">
       <c r="A14" s="9"/>
       <c r="C14" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14">
         <f>VLOOKUP(D14,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2263,10 +2260,10 @@
     <row r="15" ht="15.5" spans="1:6">
       <c r="A15" s="9"/>
       <c r="C15" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15">
         <f>VLOOKUP(D15,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2276,7 +2273,7 @@
     <row r="16" ht="18.5" spans="1:4">
       <c r="A16" s="9"/>
       <c r="B16" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="10">
         <f>SUM(F17:F26)/10</f>
@@ -2286,10 +2283,10 @@
     <row r="17" ht="15.5" spans="1:6">
       <c r="A17" s="9"/>
       <c r="C17" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17">
         <f>VLOOKUP(D17,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2298,10 +2295,10 @@
     </row>
     <row r="18" ht="15.5" spans="3:6">
       <c r="C18" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18">
         <f>VLOOKUP(D18,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2310,10 +2307,10 @@
     </row>
     <row r="19" ht="15.5" spans="3:6">
       <c r="C19" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19">
         <f>VLOOKUP(D19,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2322,10 +2319,10 @@
     </row>
     <row r="20" ht="15.5" spans="3:6">
       <c r="C20" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20">
         <f>VLOOKUP(D20,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2334,10 +2331,10 @@
     </row>
     <row r="21" ht="15.5" spans="3:6">
       <c r="C21" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21">
         <f>VLOOKUP(D21,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2346,10 +2343,10 @@
     </row>
     <row r="22" ht="15.5" spans="3:6">
       <c r="C22" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22">
         <f>VLOOKUP(D22,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2358,10 +2355,10 @@
     </row>
     <row r="23" ht="15.5" spans="3:6">
       <c r="C23" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23">
         <f>VLOOKUP(D23,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2370,10 +2367,10 @@
     </row>
     <row r="24" ht="15.5" spans="3:6">
       <c r="C24" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24">
         <f>VLOOKUP(D24,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2382,10 +2379,10 @@
     </row>
     <row r="25" ht="15.5" spans="3:6">
       <c r="C25" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25">
         <f>VLOOKUP(D25,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2394,10 +2391,10 @@
     </row>
     <row r="26" ht="15.5" spans="3:6">
       <c r="C26" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F26">
         <f>VLOOKUP(D26,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2406,7 +2403,7 @@
     </row>
     <row r="27" ht="18.5" spans="2:4">
       <c r="B27" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="10">
         <f>SUM(F28:F29)/2</f>
@@ -2415,10 +2412,10 @@
     </row>
     <row r="28" ht="15.5" spans="3:6">
       <c r="C28" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F28">
         <f>VLOOKUP(D28,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2427,10 +2424,10 @@
     </row>
     <row r="29" ht="15.5" spans="3:6">
       <c r="C29" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29">
         <f>VLOOKUP(D29,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2439,7 +2436,7 @@
     </row>
     <row r="30" ht="18.5" spans="2:4">
       <c r="B30" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D30" s="10">
         <f>SUM(F31:F32)/2</f>
@@ -2448,10 +2445,10 @@
     </row>
     <row r="31" ht="15.5" spans="3:6">
       <c r="C31" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31">
         <f>VLOOKUP(D31,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2460,10 +2457,10 @@
     </row>
     <row r="32" ht="15.5" spans="3:6">
       <c r="C32" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F32">
         <f>VLOOKUP(D32,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2472,7 +2469,7 @@
     </row>
     <row r="33" ht="18.5" spans="2:4">
       <c r="B33" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="10">
@@ -2482,10 +2479,10 @@
     </row>
     <row r="34" ht="15.5" spans="3:6">
       <c r="C34" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F34">
         <f>VLOOKUP(D34,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2494,10 +2491,10 @@
     </row>
     <row r="35" ht="15.5" spans="3:6">
       <c r="C35" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F35">
         <f>VLOOKUP(D35,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2506,10 +2503,10 @@
     </row>
     <row r="36" ht="15.5" spans="3:6">
       <c r="C36" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F36">
         <f>VLOOKUP(D36,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2518,10 +2515,10 @@
     </row>
     <row r="37" ht="15.5" spans="3:6">
       <c r="C37" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F37">
         <f>VLOOKUP(D37,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2530,7 +2527,7 @@
     </row>
     <row r="38" ht="18.5" spans="2:4">
       <c r="B38" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" s="10">
         <f>SUM(F39:F42)/4</f>
@@ -2539,10 +2536,10 @@
     </row>
     <row r="39" ht="15.5" spans="3:6">
       <c r="C39" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F39">
         <f>VLOOKUP(D39,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2551,10 +2548,10 @@
     </row>
     <row r="40" ht="15.5" spans="3:6">
       <c r="C40" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F40">
         <f>VLOOKUP(D40,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2563,10 +2560,10 @@
     </row>
     <row r="41" ht="15.5" spans="3:6">
       <c r="C41" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F41">
         <f>VLOOKUP(D41,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2575,10 +2572,10 @@
     </row>
     <row r="42" ht="15.5" spans="3:6">
       <c r="C42" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42">
         <f>VLOOKUP(D42,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2587,7 +2584,7 @@
     </row>
     <row r="43" ht="18.5" spans="2:4">
       <c r="B43" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" s="10">
         <f>SUM(F44:F48)/5</f>
@@ -2596,10 +2593,10 @@
     </row>
     <row r="44" ht="15.5" spans="3:6">
       <c r="C44" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F44">
         <f>VLOOKUP(D44,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2608,10 +2605,10 @@
     </row>
     <row r="45" ht="15.5" spans="3:6">
       <c r="C45" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F45">
         <f>VLOOKUP(D45,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2620,10 +2617,10 @@
     </row>
     <row r="46" ht="15.5" spans="3:6">
       <c r="C46" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F46">
         <f>VLOOKUP(D46,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2632,10 +2629,10 @@
     </row>
     <row r="47" ht="15.5" spans="3:6">
       <c r="C47" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F47">
         <f>VLOOKUP(D47,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2644,10 +2641,10 @@
     </row>
     <row r="48" ht="15.5" spans="3:6">
       <c r="C48" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F48">
         <f>VLOOKUP(D48,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2668,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D51" s="10">
         <f>SUM(F52:F56)/5</f>
@@ -2677,10 +2674,10 @@
     </row>
     <row r="52" ht="15.5" spans="3:6">
       <c r="C52" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F52">
         <f>VLOOKUP(D52,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2689,10 +2686,10 @@
     </row>
     <row r="53" ht="15.5" spans="3:6">
       <c r="C53" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F53">
         <f>VLOOKUP(D53,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2701,10 +2698,10 @@
     </row>
     <row r="54" ht="15.5" spans="3:6">
       <c r="C54" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F54">
         <f>VLOOKUP(D54,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2713,10 +2710,10 @@
     </row>
     <row r="55" ht="15.5" spans="3:6">
       <c r="C55" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F55">
         <f>VLOOKUP(D55,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2725,10 +2722,10 @@
     </row>
     <row r="56" ht="15.5" spans="3:6">
       <c r="C56" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F56">
         <f>VLOOKUP(D56,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2749,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="10">
         <f>SUM(F60:F64)/5</f>
@@ -2758,10 +2755,10 @@
     </row>
     <row r="60" ht="15.5" spans="3:6">
       <c r="C60" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F60">
         <f>VLOOKUP(D60,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2770,10 +2767,10 @@
     </row>
     <row r="61" ht="15.5" spans="3:6">
       <c r="C61" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F61">
         <f>VLOOKUP(D61,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2782,10 +2779,10 @@
     </row>
     <row r="62" ht="15.5" spans="3:6">
       <c r="C62" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F62">
         <f>VLOOKUP(D62,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2794,10 +2791,10 @@
     </row>
     <row r="63" ht="15.5" spans="3:6">
       <c r="C63" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F63">
         <f>VLOOKUP(D63,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2806,10 +2803,10 @@
     </row>
     <row r="64" ht="15.5" spans="3:6">
       <c r="C64" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F64">
         <f>VLOOKUP(D64,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2818,7 +2815,7 @@
     </row>
     <row r="65" ht="18.5" spans="2:4">
       <c r="B65" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D65" s="10">
         <f>SUM(F66:F70)/5</f>
@@ -2827,10 +2824,10 @@
     </row>
     <row r="66" ht="15.5" spans="3:6">
       <c r="C66" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F66">
         <f>VLOOKUP(D66,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2840,10 +2837,10 @@
     <row r="67" ht="15.5" spans="2:6">
       <c r="B67" s="17"/>
       <c r="C67" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F67">
         <f>VLOOKUP(D67,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2853,10 +2850,10 @@
     <row r="68" ht="15.5" spans="2:6">
       <c r="B68" s="11"/>
       <c r="C68" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F68">
         <f>VLOOKUP(D68,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2865,10 +2862,10 @@
     </row>
     <row r="69" ht="15.5" spans="3:6">
       <c r="C69" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F69">
         <f>VLOOKUP(D69,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2877,10 +2874,10 @@
     </row>
     <row r="70" ht="15.5" spans="3:6">
       <c r="C70" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F70">
         <f>VLOOKUP(D70,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2898,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D73" s="10">
         <f>SUM(F74:F79)/6</f>
@@ -2907,10 +2904,10 @@
     </row>
     <row r="74" ht="15.5" spans="3:6">
       <c r="C74" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F74">
         <f>VLOOKUP(D74,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2919,10 +2916,10 @@
     </row>
     <row r="75" ht="15.5" spans="3:6">
       <c r="C75" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F75">
         <f>VLOOKUP(D75,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2931,10 +2928,10 @@
     </row>
     <row r="76" ht="15.5" spans="3:6">
       <c r="C76" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F76">
         <f>VLOOKUP(D76,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2943,10 +2940,10 @@
     </row>
     <row r="77" ht="15.5" spans="3:6">
       <c r="C77" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F77">
         <f>VLOOKUP(D77,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2955,10 +2952,10 @@
     </row>
     <row r="78" ht="15.5" spans="3:6">
       <c r="C78" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F78">
         <f>VLOOKUP(D78,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2967,10 +2964,10 @@
     </row>
     <row r="79" ht="15.5" spans="3:6">
       <c r="C79" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F79">
         <f>VLOOKUP(D79,ListOfValue!A2:B4,2,FALSE)</f>
@@ -2979,7 +2976,7 @@
     </row>
     <row r="80" ht="18.5" spans="2:4">
       <c r="B80" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D80" s="10">
         <f>SUM(F81:F84)/4</f>
@@ -2988,10 +2985,10 @@
     </row>
     <row r="81" ht="15.5" spans="3:6">
       <c r="C81" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F81">
         <f>VLOOKUP(D81,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3000,10 +2997,10 @@
     </row>
     <row r="82" ht="15.5" spans="3:6">
       <c r="C82" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F82">
         <f>VLOOKUP(D82,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3012,10 +3009,10 @@
     </row>
     <row r="83" ht="15.5" spans="3:6">
       <c r="C83" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F83">
         <f>VLOOKUP(D83,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3024,10 +3021,10 @@
     </row>
     <row r="84" ht="15.5" spans="3:6">
       <c r="C84" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F84">
         <f>VLOOKUP(D84,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3036,25 +3033,25 @@
     </row>
     <row r="85" ht="29" spans="2:2">
       <c r="B85" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" ht="29" spans="2:3">
       <c r="B86" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C86" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" ht="18.5" spans="2:4">
       <c r="B89" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D89" s="10">
         <f>SUM(F90:F91)/2</f>
@@ -3063,10 +3060,10 @@
     </row>
     <row r="90" ht="15.5" spans="3:6">
       <c r="C90" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F90">
         <f>VLOOKUP(D90,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3075,10 +3072,10 @@
     </row>
     <row r="91" ht="15.5" spans="3:6">
       <c r="C91" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F91">
         <f>VLOOKUP(D91,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3090,7 +3087,7 @@
         <v>16</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D93" s="10">
         <f>SUM(F94:F100)/7</f>
@@ -3103,10 +3100,10 @@
         <v>0</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F94">
         <f>VLOOKUP(D94,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3115,10 +3112,10 @@
     </row>
     <row r="95" ht="15.5" spans="3:6">
       <c r="C95" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F95">
         <f>VLOOKUP(D95,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3127,10 +3124,10 @@
     </row>
     <row r="96" ht="15.5" spans="3:6">
       <c r="C96" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F96">
         <f>VLOOKUP(D96,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3139,10 +3136,10 @@
     </row>
     <row r="97" ht="15.5" spans="3:6">
       <c r="C97" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F97">
         <f>VLOOKUP(D97,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3151,10 +3148,10 @@
     </row>
     <row r="98" ht="15.5" spans="3:6">
       <c r="C98" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F98">
         <f>VLOOKUP(D98,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3163,10 +3160,10 @@
     </row>
     <row r="99" ht="15.5" spans="3:6">
       <c r="C99" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F99">
         <f>VLOOKUP(D99,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3175,10 +3172,10 @@
     </row>
     <row r="100" ht="15.5" spans="3:6">
       <c r="C100" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F100">
         <f>VLOOKUP(D100,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3187,7 +3184,7 @@
     </row>
     <row r="101" ht="18.5" spans="2:4">
       <c r="B101" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D101" s="10">
         <f>SUM(F102:F109)/8</f>
@@ -3196,10 +3193,10 @@
     </row>
     <row r="102" ht="15.5" spans="3:6">
       <c r="C102" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F102">
         <f>VLOOKUP(D102,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3208,10 +3205,10 @@
     </row>
     <row r="103" ht="15.5" spans="3:6">
       <c r="C103" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F103">
         <f>VLOOKUP(D103,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3220,10 +3217,10 @@
     </row>
     <row r="104" ht="15.5" spans="3:6">
       <c r="C104" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F104">
         <f>VLOOKUP(D104,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3232,10 +3229,10 @@
     </row>
     <row r="105" ht="15.5" spans="3:6">
       <c r="C105" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F105">
         <f>VLOOKUP(D105,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3244,10 +3241,10 @@
     </row>
     <row r="106" ht="15.5" spans="3:6">
       <c r="C106" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F106">
         <f>VLOOKUP(D106,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3256,10 +3253,10 @@
     </row>
     <row r="107" ht="15.5" spans="3:6">
       <c r="C107" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F107">
         <f>VLOOKUP(D107,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3268,10 +3265,10 @@
     </row>
     <row r="108" ht="15.5" spans="3:6">
       <c r="C108" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F108">
         <f>VLOOKUP(D108,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3280,10 +3277,10 @@
     </row>
     <row r="109" ht="15.5" spans="3:6">
       <c r="C109" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F109">
         <f>VLOOKUP(D109,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3301,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D112" s="10">
         <f>SUM(F113:F116)/4</f>
@@ -3310,10 +3307,10 @@
     </row>
     <row r="113" ht="15.5" spans="3:6">
       <c r="C113" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F113">
         <f>VLOOKUP(D113,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3322,10 +3319,10 @@
     </row>
     <row r="114" ht="15.5" spans="3:6">
       <c r="C114" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F114">
         <f>VLOOKUP(D114,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3334,10 +3331,10 @@
     </row>
     <row r="115" ht="15.5" spans="3:6">
       <c r="C115" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F115">
         <f>VLOOKUP(D115,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3346,10 +3343,10 @@
     </row>
     <row r="116" ht="15.5" spans="3:6">
       <c r="C116" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F116">
         <f>VLOOKUP(D116,ListOfValue!A2:B4,2,FALSE)</f>
@@ -3367,10 +3364,10 @@
         <v>18</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F118">
         <f>VLOOKUP(D118,ListOfValue!A2:B49,2,FALSE)</f>
@@ -4021,7 +4018,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -4031,15 +4028,15 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -4047,7 +4044,7 @@
     </row>
     <row r="3" ht="15.5" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" s="4">
         <v>0.5</v>
@@ -4055,13 +4052,14 @@
     </row>
     <row r="4" ht="15.5" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="C653" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
